--- a/EngineerDoc/6-SensorsInfo/SensorTrades.xlsx
+++ b/EngineerDoc/6-SensorsInfo/SensorTrades.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="20010" windowHeight="8700"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8100" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Front Layout" sheetId="2" r:id="rId2"/>
+    <sheet name="Back Layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>Ultrasonic Sensors</t>
   </si>
@@ -187,16 +187,95 @@
   </si>
   <si>
     <t>Voltage :</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Ultrasonic Sensors seems to be more viable for collision awareness</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compatibility: </t>
+  </si>
+  <si>
+    <t>Risk Mitigation:</t>
+  </si>
+  <si>
+    <t>No experience with IR sensors for collision detection</t>
+  </si>
+  <si>
+    <t>(only experienced for remote control signals)</t>
+  </si>
+  <si>
+    <t>Ultrasonic Sensors easily compatible with Raspberry Pi</t>
+  </si>
+  <si>
+    <t>IR Sensors easily compatible with Raspberry PI</t>
+  </si>
+  <si>
+    <t>(microcontroller included)</t>
+  </si>
+  <si>
+    <t>(no additional microcontroller needed)</t>
+  </si>
+  <si>
+    <t>Experience with Ultrasonic sensor</t>
+  </si>
+  <si>
+    <t>(TTL pulse)</t>
+  </si>
+  <si>
+    <t>Color of Object Affects Readings</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Risk:</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Risk Reduction (Mess Around)</t>
+  </si>
+  <si>
+    <t>Order List</t>
+  </si>
+  <si>
+    <t>Put into Risk for Risk Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,19 +318,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,6 +347,826 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="0"/>
+          <a:ext cx="4657725" cy="4657725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="2981325"/>
+          <a:ext cx="171450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="3133725"/>
+          <a:ext cx="171450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="3019425"/>
+          <a:ext cx="171450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="3486150"/>
+          <a:ext cx="171450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115661</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47631</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177268" y="3095625"/>
+          <a:ext cx="2590800" cy="6"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>154313</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7520313" y="3095631"/>
+          <a:ext cx="2311604" cy="5286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571297</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6709630" y="3258614"/>
+          <a:ext cx="3122287" cy="837136"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>151348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363864</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3672417" y="3580348"/>
+          <a:ext cx="2829780" cy="504819"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328083</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Oval 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6466416" y="1502834"/>
+          <a:ext cx="317500" cy="306917"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>126795</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>596899</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6878962" y="1649947"/>
+          <a:ext cx="2311604" cy="5286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>337608</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>131234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>509058</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>159809</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7089775" y="3369734"/>
+          <a:ext cx="171450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426509</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>597959</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951009" y="3352800"/>
+          <a:ext cx="171450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="0"/>
+          <a:ext cx="4524375" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="1876425"/>
+          <a:ext cx="171450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6153150" y="1971676"/>
+          <a:ext cx="3009900" cy="409574"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +1588,7 @@
       <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -769,6 +1672,12 @@
       <c r="G8" s="3">
         <v>15</v>
       </c>
+      <c r="I8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -776,6 +1685,9 @@
       </c>
       <c r="G10" t="s">
         <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -955,31 +1867,134 @@
         <v>42</v>
       </c>
     </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E6:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>